--- a/DataScience/cluster_summary.xlsx
+++ b/DataScience/cluster_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cluster</t>
+          <t>Cluster_Sil</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -512,171 +512,163 @@
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Temperature Adjusted Consumption</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>User Type</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Group 1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>76.92592592592592</v>
+        <v>74.05194805194805</v>
       </c>
       <c r="C2" t="n">
-        <v>52.52099443804202</v>
+        <v>20.7880744805966</v>
       </c>
       <c r="D2" t="n">
-        <v>1.146949598033985</v>
+        <v>2.365634568776023</v>
       </c>
       <c r="E2" t="n">
-        <v>26.85179945167327</v>
+        <v>27.64506062891038</v>
       </c>
       <c r="F2" t="n">
-        <v>22.75094250256618</v>
+        <v>21.22574391224822</v>
       </c>
       <c r="G2" t="n">
-        <v>129.6840758866533</v>
+        <v>175.4403305259484</v>
       </c>
       <c r="H2" t="n">
-        <v>7.309386372435673</v>
+        <v>8.264659382638269</v>
       </c>
       <c r="I2" t="n">
-        <v>3.878306878306878</v>
+        <v>3.584415584415584</v>
       </c>
       <c r="J2" t="n">
-        <v>53.30506032250815</v>
+        <v>10.48349157664866</v>
       </c>
       <c r="K2" t="n">
-        <v>4.347009178202245</v>
+        <v>1.503169886492222</v>
       </c>
       <c r="L2" t="n">
-        <v>2.772295031290308</v>
+        <v>10.97286861299163</v>
       </c>
       <c r="M2" t="n">
-        <v>35.63128780343165</v>
+        <v>34.38407131912734</v>
       </c>
       <c r="N2" t="n">
-        <v>27.12475262546089</v>
+        <v>14.09325598448466</v>
       </c>
       <c r="O2" t="n">
-        <v>36.29815306740851</v>
+        <v>17.36716554324715</v>
       </c>
       <c r="P2" t="n">
-        <v>86.5839520277155</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+        <v>32.8638291206957</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Group 2</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>74.30035335689045</v>
+        <v>74.91131498470948</v>
       </c>
       <c r="C3" t="n">
-        <v>55.87423194720615</v>
+        <v>55.89480377963228</v>
       </c>
       <c r="D3" t="n">
-        <v>3.002977772925421</v>
+        <v>2.735031302181362</v>
       </c>
       <c r="E3" t="n">
-        <v>24.90939908168976</v>
+        <v>23.09410650987391</v>
       </c>
       <c r="F3" t="n">
-        <v>22.93175170930477</v>
+        <v>23.37200335080479</v>
       </c>
       <c r="G3" t="n">
-        <v>162.1687475482166</v>
+        <v>149.5983716486236</v>
       </c>
       <c r="H3" t="n">
-        <v>6.45181395114455</v>
+        <v>5.687436897817985</v>
       </c>
       <c r="I3" t="n">
-        <v>3.607773851590106</v>
+        <v>3.746177370030581</v>
       </c>
       <c r="J3" t="n">
-        <v>19.42478537131784</v>
+        <v>22.46200995282599</v>
       </c>
       <c r="K3" t="n">
-        <v>3.665451477611951</v>
+        <v>4.036976109127002</v>
       </c>
       <c r="L3" t="n">
-        <v>3.137338889592429</v>
+        <v>2.803510267534929</v>
       </c>
       <c r="M3" t="n">
-        <v>37.445338549661</v>
+        <v>35.1634055007124</v>
       </c>
       <c r="N3" t="n">
-        <v>8.673543886924675</v>
+        <v>9.049425882192411</v>
       </c>
       <c r="O3" t="n">
-        <v>12.91263604616659</v>
+        <v>13.69006191144281</v>
       </c>
       <c r="P3" t="n">
-        <v>94.49268310828232</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9929328621908127</v>
+        <v>95.43464365602205</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Group 3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>73.2807881773399</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>18.97899903798582</v>
+        <v>55.6578320820755</v>
       </c>
       <c r="D4" t="n">
-        <v>2.387925502033448</v>
+        <v>0.944856747679835</v>
       </c>
       <c r="E4" t="n">
-        <v>26.082945808648</v>
+        <v>29.75560856096517</v>
       </c>
       <c r="F4" t="n">
-        <v>21.27424709625027</v>
+        <v>21.90165887020988</v>
       </c>
       <c r="G4" t="n">
-        <v>170.8225381096958</v>
+        <v>133.6379252512565</v>
       </c>
       <c r="H4" t="n">
-        <v>7.271596958407487</v>
+        <v>7.816610018333749</v>
       </c>
       <c r="I4" t="n">
-        <v>3.600985221674877</v>
+        <v>3.692307692307693</v>
       </c>
       <c r="J4" t="n">
-        <v>9.441120738253353</v>
+        <v>65.99704583010669</v>
       </c>
       <c r="K4" t="n">
-        <v>1.559379626012089</v>
+        <v>4.343060986842969</v>
       </c>
       <c r="L4" t="n">
-        <v>11.6596909753513</v>
+        <v>2.797157500682501</v>
       </c>
       <c r="M4" t="n">
-        <v>33.19009228271466</v>
+        <v>39.55366550719958</v>
       </c>
       <c r="N4" t="n">
-        <v>13.04518908760547</v>
+        <v>34.31333465899851</v>
       </c>
       <c r="O4" t="n">
-        <v>16.58204601007773</v>
+        <v>46.08817765230119</v>
       </c>
       <c r="P4" t="n">
-        <v>31.44296232901692</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.004926108374384237</v>
+        <v>91.36790259207388</v>
       </c>
     </row>
   </sheetData>
